--- a/create_uppload _match/data.xlsx
+++ b/create_uppload _match/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lazarekolebka/Documents/GitHub/baby-foot-python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lazarekolebka/Documents/GitHub/baby-foot-python/create_uppload _match/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F136FD4-C0BD-FD41-8D2A-9F240A50CDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1ACF44-62B7-9945-B26D-412237052672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16520" xr2:uid="{3047FE35-D3D7-B143-93A4-201EEA00FB6B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4380" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4564" uniqueCount="21">
   <si>
     <t>Lazare</t>
   </si>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8CBF0B-E51F-9843-B378-4476707EC7F4}">
   <dimension ref="A1:Z1504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="112" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:J8"/>
+    <sheetView tabSelected="1" topLeftCell="A1080" zoomScale="112" workbookViewId="0">
+      <selection activeCell="F1102" sqref="F1102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30824,7 +30824,7 @@
         <v>11</v>
       </c>
       <c r="H1090" t="str">
-        <f t="shared" ref="H1090:H1095" si="17">IF(D1090=G1090,"error","ok")</f>
+        <f t="shared" ref="H1090:H1141" si="17">IF(D1090=G1090,"error","ok")</f>
         <v>ok</v>
       </c>
       <c r="I1090" s="2"/>
@@ -31071,420 +31071,2075 @@
       <c r="Y1095" s="2"/>
     </row>
     <row r="1096" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1096" s="2"/>
-      <c r="B1096" s="2"/>
-      <c r="C1096" s="2"/>
-      <c r="D1096" s="2"/>
-      <c r="E1096" s="2"/>
-      <c r="F1096" s="2"/>
-      <c r="G1096" s="2"/>
+      <c r="A1096" s="1">
+        <v>44986.538101851853</v>
+      </c>
+      <c r="B1096" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1096" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1096" s="2">
+        <v>11</v>
+      </c>
+      <c r="E1096" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1096" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1096" s="2">
+        <v>7</v>
+      </c>
+      <c r="H1096" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1096" s="2"/>
+      <c r="J1096" s="2"/>
+      <c r="K1096" s="2"/>
+      <c r="L1096" s="2"/>
+      <c r="M1096" s="2"/>
+      <c r="N1096" s="2"/>
+      <c r="O1096" s="2"/>
+      <c r="P1096" s="2"/>
+      <c r="Q1096" s="2"/>
+      <c r="R1096" s="2"/>
+      <c r="S1096" s="2"/>
+      <c r="T1096" s="2"/>
+      <c r="U1096" s="2"/>
+      <c r="V1096" s="2"/>
+      <c r="W1096" s="2"/>
+      <c r="X1096" s="2"/>
+      <c r="Y1096" s="2"/>
+      <c r="Z1096" s="2"/>
     </row>
     <row r="1097" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1097" s="2"/>
-      <c r="B1097" s="2"/>
-      <c r="C1097" s="2"/>
-      <c r="D1097" s="2"/>
-      <c r="E1097" s="2"/>
-      <c r="F1097" s="2"/>
-      <c r="G1097" s="2"/>
+      <c r="A1097" s="1">
+        <v>44986.62091435185</v>
+      </c>
+      <c r="B1097" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1097" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1097" s="2">
+        <v>11</v>
+      </c>
+      <c r="E1097" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1097" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1097" s="2">
+        <v>9</v>
+      </c>
+      <c r="H1097" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1097" s="2"/>
+      <c r="J1097" s="2"/>
+      <c r="K1097" s="2"/>
+      <c r="L1097" s="2"/>
+      <c r="M1097" s="2"/>
+      <c r="N1097" s="2"/>
+      <c r="O1097" s="2"/>
+      <c r="P1097" s="2"/>
+      <c r="Q1097" s="2"/>
+      <c r="R1097" s="2"/>
+      <c r="S1097" s="2"/>
+      <c r="T1097" s="2"/>
+      <c r="U1097" s="2"/>
+      <c r="V1097" s="2"/>
+      <c r="W1097" s="2"/>
+      <c r="X1097" s="2"/>
+      <c r="Y1097" s="2"/>
+      <c r="Z1097" s="2"/>
     </row>
     <row r="1098" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1098" s="2"/>
-      <c r="B1098" s="2"/>
-      <c r="C1098" s="2"/>
-      <c r="D1098" s="2"/>
-      <c r="E1098" s="2"/>
-      <c r="F1098" s="2"/>
-      <c r="G1098" s="2"/>
+      <c r="A1098" s="1">
+        <v>44986.682303240741</v>
+      </c>
+      <c r="B1098" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1098" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1098" s="2">
+        <v>11</v>
+      </c>
+      <c r="E1098" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1098" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1098" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1098" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1098" s="2"/>
+      <c r="J1098" s="2"/>
+      <c r="K1098" s="2"/>
+      <c r="L1098" s="2"/>
+      <c r="M1098" s="2"/>
+      <c r="N1098" s="2"/>
+      <c r="O1098" s="2"/>
+      <c r="P1098" s="2"/>
+      <c r="Q1098" s="2"/>
+      <c r="R1098" s="2"/>
+      <c r="S1098" s="2"/>
+      <c r="T1098" s="2"/>
+      <c r="U1098" s="2"/>
+      <c r="V1098" s="2"/>
+      <c r="W1098" s="2"/>
+      <c r="X1098" s="2"/>
+      <c r="Y1098" s="2"/>
+      <c r="Z1098" s="2"/>
     </row>
     <row r="1099" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1099" s="2"/>
-      <c r="B1099" s="2"/>
-      <c r="C1099" s="2"/>
-      <c r="D1099" s="2"/>
-      <c r="E1099" s="2"/>
-      <c r="F1099" s="2"/>
-      <c r="G1099" s="2"/>
+      <c r="A1099" s="1">
+        <v>44986.72865740741</v>
+      </c>
+      <c r="B1099" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1099" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1099" s="2">
+        <v>11</v>
+      </c>
+      <c r="E1099" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1099" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1099" s="2">
+        <v>9</v>
+      </c>
+      <c r="H1099" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1099" s="2"/>
+      <c r="J1099" s="2"/>
+      <c r="K1099" s="2"/>
+      <c r="L1099" s="2"/>
+      <c r="M1099" s="2"/>
+      <c r="N1099" s="2"/>
+      <c r="O1099" s="2"/>
+      <c r="P1099" s="2"/>
+      <c r="Q1099" s="2"/>
+      <c r="R1099" s="2"/>
+      <c r="S1099" s="2"/>
+      <c r="T1099" s="2"/>
+      <c r="U1099" s="2"/>
+      <c r="V1099" s="2"/>
+      <c r="W1099" s="2"/>
+      <c r="X1099" s="2"/>
+      <c r="Y1099" s="2"/>
+      <c r="Z1099" s="2"/>
     </row>
     <row r="1100" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1100" s="2"/>
-      <c r="B1100" s="2"/>
-      <c r="C1100" s="2"/>
-      <c r="D1100" s="2"/>
-      <c r="E1100" s="2"/>
-      <c r="F1100" s="2"/>
-      <c r="G1100" s="2"/>
+      <c r="A1100" s="1">
+        <v>44986.729016203702</v>
+      </c>
+      <c r="B1100" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1100" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1100" s="2">
+        <v>11</v>
+      </c>
+      <c r="E1100" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1100" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1100" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1100" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1100" s="2"/>
+      <c r="J1100" s="2"/>
+      <c r="K1100" s="2"/>
+      <c r="L1100" s="2"/>
+      <c r="M1100" s="2"/>
+      <c r="N1100" s="2"/>
+      <c r="O1100" s="2"/>
+      <c r="P1100" s="2"/>
+      <c r="Q1100" s="2"/>
+      <c r="R1100" s="2"/>
+      <c r="S1100" s="2"/>
+      <c r="T1100" s="2"/>
+      <c r="U1100" s="2"/>
+      <c r="V1100" s="2"/>
+      <c r="W1100" s="2"/>
+      <c r="X1100" s="2"/>
+      <c r="Y1100" s="2"/>
+      <c r="Z1100" s="2"/>
     </row>
     <row r="1101" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1101" s="2"/>
-      <c r="B1101" s="2"/>
-      <c r="C1101" s="2"/>
-      <c r="D1101" s="2"/>
-      <c r="E1101" s="2"/>
-      <c r="F1101" s="2"/>
-      <c r="G1101" s="2"/>
+      <c r="A1101" s="1">
+        <v>44986.729664351849</v>
+      </c>
+      <c r="B1101" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1101" s="2">
+        <v>11</v>
+      </c>
+      <c r="E1101" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1101" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1101" s="2">
+        <v>2</v>
+      </c>
+      <c r="H1101" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1101" s="2"/>
+      <c r="J1101" s="2"/>
+      <c r="K1101" s="2"/>
+      <c r="L1101" s="2"/>
+      <c r="M1101" s="2"/>
+      <c r="N1101" s="2"/>
+      <c r="O1101" s="2"/>
+      <c r="P1101" s="2"/>
+      <c r="Q1101" s="2"/>
+      <c r="R1101" s="2"/>
+      <c r="S1101" s="2"/>
+      <c r="T1101" s="2"/>
+      <c r="U1101" s="2"/>
+      <c r="V1101" s="2"/>
+      <c r="W1101" s="2"/>
+      <c r="X1101" s="2"/>
+      <c r="Y1101" s="2"/>
+      <c r="Z1101" s="2"/>
     </row>
     <row r="1102" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1102" s="2"/>
-      <c r="B1102" s="2"/>
-      <c r="C1102" s="2"/>
-      <c r="D1102" s="2"/>
-      <c r="E1102" s="2"/>
-      <c r="F1102" s="2"/>
-      <c r="G1102" s="2"/>
+      <c r="A1102" s="1">
+        <v>44991.52857638889</v>
+      </c>
+      <c r="B1102" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1102" s="2">
+        <v>9</v>
+      </c>
+      <c r="E1102" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1102" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1102" s="2">
+        <v>11</v>
+      </c>
+      <c r="H1102" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1102" s="2"/>
+      <c r="J1102" s="2"/>
+      <c r="K1102" s="2"/>
+      <c r="L1102" s="2"/>
+      <c r="M1102" s="2"/>
+      <c r="N1102" s="2"/>
+      <c r="O1102" s="2"/>
+      <c r="P1102" s="2"/>
+      <c r="Q1102" s="2"/>
+      <c r="R1102" s="2"/>
+      <c r="S1102" s="2"/>
+      <c r="T1102" s="2"/>
+      <c r="U1102" s="2"/>
+      <c r="V1102" s="2"/>
+      <c r="W1102" s="2"/>
+      <c r="X1102" s="2"/>
+      <c r="Y1102" s="2"/>
+      <c r="Z1102" s="2"/>
     </row>
     <row r="1103" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1103" s="2"/>
-      <c r="B1103" s="2"/>
-      <c r="C1103" s="2"/>
-      <c r="D1103" s="2"/>
-      <c r="E1103" s="2"/>
-      <c r="F1103" s="2"/>
-      <c r="G1103" s="2"/>
+      <c r="A1103" s="1">
+        <v>44991.545497685183</v>
+      </c>
+      <c r="B1103" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1103" s="2">
+        <v>11</v>
+      </c>
+      <c r="E1103" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1103" s="2">
+        <v>8</v>
+      </c>
+      <c r="H1103" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1103" s="2"/>
+      <c r="J1103" s="2"/>
+      <c r="K1103" s="2"/>
+      <c r="L1103" s="2"/>
+      <c r="M1103" s="2"/>
+      <c r="N1103" s="2"/>
+      <c r="O1103" s="2"/>
+      <c r="P1103" s="2"/>
+      <c r="Q1103" s="2"/>
+      <c r="R1103" s="2"/>
+      <c r="S1103" s="2"/>
+      <c r="T1103" s="2"/>
+      <c r="U1103" s="2"/>
+      <c r="V1103" s="2"/>
+      <c r="W1103" s="2"/>
+      <c r="X1103" s="2"/>
+      <c r="Y1103" s="2"/>
+      <c r="Z1103" s="2"/>
     </row>
     <row r="1104" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1104" s="2"/>
-      <c r="B1104" s="2"/>
-      <c r="C1104" s="2"/>
-      <c r="D1104" s="2"/>
-      <c r="E1104" s="2"/>
-      <c r="F1104" s="2"/>
-      <c r="G1104" s="2"/>
-    </row>
-    <row r="1105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1105" s="2"/>
-      <c r="B1105" s="2"/>
-      <c r="C1105" s="2"/>
-      <c r="D1105" s="2"/>
-      <c r="E1105" s="2"/>
-      <c r="F1105" s="2"/>
-      <c r="G1105" s="2"/>
-    </row>
-    <row r="1106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1106" s="2"/>
-      <c r="B1106" s="2"/>
-      <c r="C1106" s="2"/>
-      <c r="D1106" s="2"/>
-      <c r="E1106" s="2"/>
-      <c r="F1106" s="2"/>
-      <c r="G1106" s="2"/>
-    </row>
-    <row r="1107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1107" s="2"/>
-      <c r="B1107" s="2"/>
-      <c r="C1107" s="2"/>
-      <c r="D1107" s="2"/>
-      <c r="E1107" s="2"/>
-      <c r="F1107" s="2"/>
-      <c r="G1107" s="2"/>
-    </row>
-    <row r="1108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1108" s="2"/>
-      <c r="B1108" s="2"/>
-      <c r="C1108" s="2"/>
-      <c r="D1108" s="2"/>
-      <c r="E1108" s="2"/>
-      <c r="F1108" s="2"/>
-      <c r="G1108" s="2"/>
-    </row>
-    <row r="1109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1109" s="2"/>
-      <c r="B1109" s="2"/>
-      <c r="C1109" s="2"/>
-      <c r="D1109" s="2"/>
-      <c r="E1109" s="2"/>
-      <c r="F1109" s="2"/>
-      <c r="G1109" s="2"/>
-    </row>
-    <row r="1110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1110" s="2"/>
-      <c r="B1110" s="2"/>
-      <c r="C1110" s="2"/>
-      <c r="D1110" s="2"/>
-      <c r="E1110" s="2"/>
-      <c r="F1110" s="2"/>
-      <c r="G1110" s="2"/>
-    </row>
-    <row r="1111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1111" s="2"/>
-      <c r="B1111" s="2"/>
-      <c r="C1111" s="2"/>
-      <c r="D1111" s="2"/>
-      <c r="E1111" s="2"/>
-      <c r="F1111" s="2"/>
-      <c r="G1111" s="2"/>
-    </row>
-    <row r="1112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1112" s="2"/>
-      <c r="B1112" s="2"/>
-      <c r="C1112" s="2"/>
-      <c r="D1112" s="2"/>
-      <c r="E1112" s="2"/>
-      <c r="F1112" s="2"/>
-      <c r="G1112" s="2"/>
-    </row>
-    <row r="1113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1113" s="2"/>
-      <c r="B1113" s="2"/>
-      <c r="C1113" s="2"/>
-      <c r="D1113" s="2"/>
-      <c r="E1113" s="2"/>
-      <c r="F1113" s="2"/>
-      <c r="G1113" s="2"/>
-    </row>
-    <row r="1114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1114" s="2"/>
-      <c r="B1114" s="2"/>
-      <c r="C1114" s="2"/>
-      <c r="D1114" s="2"/>
-      <c r="E1114" s="2"/>
-      <c r="F1114" s="2"/>
-      <c r="G1114" s="2"/>
-    </row>
-    <row r="1115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1115" s="2"/>
-      <c r="B1115" s="2"/>
-      <c r="C1115" s="2"/>
-      <c r="D1115" s="2"/>
-      <c r="E1115" s="2"/>
-      <c r="F1115" s="2"/>
-      <c r="G1115" s="2"/>
-    </row>
-    <row r="1116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1116" s="2"/>
-      <c r="B1116" s="2"/>
-      <c r="C1116" s="2"/>
-      <c r="D1116" s="2"/>
-      <c r="E1116" s="2"/>
-      <c r="F1116" s="2"/>
-      <c r="G1116" s="2"/>
-    </row>
-    <row r="1117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1117" s="2"/>
-      <c r="B1117" s="2"/>
-      <c r="C1117" s="2"/>
-      <c r="D1117" s="2"/>
-      <c r="E1117" s="2"/>
-      <c r="F1117" s="2"/>
-      <c r="G1117" s="2"/>
-    </row>
-    <row r="1118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1118" s="2"/>
-      <c r="B1118" s="2"/>
-      <c r="C1118" s="2"/>
-      <c r="D1118" s="2"/>
-      <c r="E1118" s="2"/>
-      <c r="F1118" s="2"/>
-      <c r="G1118" s="2"/>
-    </row>
-    <row r="1119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1119" s="2"/>
-      <c r="B1119" s="2"/>
-      <c r="C1119" s="2"/>
-      <c r="D1119" s="2"/>
-      <c r="E1119" s="2"/>
-      <c r="F1119" s="2"/>
-      <c r="G1119" s="2"/>
-    </row>
-    <row r="1120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1120" s="2"/>
-      <c r="B1120" s="2"/>
-      <c r="C1120" s="2"/>
-      <c r="D1120" s="2"/>
-      <c r="E1120" s="2"/>
-      <c r="F1120" s="2"/>
-      <c r="G1120" s="2"/>
-    </row>
-    <row r="1121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1121" s="2"/>
-      <c r="B1121" s="2"/>
-      <c r="C1121" s="2"/>
-      <c r="D1121" s="2"/>
-      <c r="E1121" s="2"/>
-      <c r="F1121" s="2"/>
-      <c r="G1121" s="2"/>
-    </row>
-    <row r="1122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1122" s="2"/>
-      <c r="B1122" s="2"/>
-      <c r="C1122" s="2"/>
-      <c r="D1122" s="2"/>
-      <c r="E1122" s="2"/>
-      <c r="F1122" s="2"/>
-      <c r="G1122" s="2"/>
-    </row>
-    <row r="1123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1123" s="2"/>
-      <c r="B1123" s="2"/>
-      <c r="C1123" s="2"/>
-      <c r="D1123" s="2"/>
-      <c r="E1123" s="2"/>
-      <c r="F1123" s="2"/>
-      <c r="G1123" s="2"/>
-    </row>
-    <row r="1124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1124" s="2"/>
-      <c r="B1124" s="2"/>
-      <c r="C1124" s="2"/>
-      <c r="D1124" s="2"/>
-      <c r="E1124" s="2"/>
-      <c r="F1124" s="2"/>
-      <c r="G1124" s="2"/>
-    </row>
-    <row r="1125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1125" s="2"/>
-      <c r="B1125" s="2"/>
-      <c r="C1125" s="2"/>
-      <c r="D1125" s="2"/>
-      <c r="E1125" s="2"/>
-      <c r="F1125" s="2"/>
-      <c r="G1125" s="2"/>
-    </row>
-    <row r="1126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1126" s="2"/>
-      <c r="B1126" s="2"/>
-      <c r="C1126" s="2"/>
-      <c r="D1126" s="2"/>
-      <c r="E1126" s="2"/>
-      <c r="F1126" s="2"/>
-      <c r="G1126" s="2"/>
-    </row>
-    <row r="1127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1127" s="2"/>
-      <c r="B1127" s="2"/>
-      <c r="C1127" s="2"/>
-      <c r="D1127" s="2"/>
-      <c r="E1127" s="2"/>
-      <c r="F1127" s="2"/>
-      <c r="G1127" s="2"/>
-    </row>
-    <row r="1128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1128" s="2"/>
-      <c r="B1128" s="2"/>
-      <c r="C1128" s="2"/>
-      <c r="D1128" s="2"/>
-      <c r="E1128" s="2"/>
-      <c r="F1128" s="2"/>
-      <c r="G1128" s="2"/>
-    </row>
-    <row r="1129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1129" s="2"/>
-      <c r="B1129" s="2"/>
-      <c r="C1129" s="2"/>
-      <c r="D1129" s="2"/>
-      <c r="E1129" s="2"/>
-      <c r="F1129" s="2"/>
-      <c r="G1129" s="2"/>
-    </row>
-    <row r="1130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1130" s="2"/>
-      <c r="B1130" s="2"/>
-      <c r="C1130" s="2"/>
-      <c r="D1130" s="2"/>
-      <c r="E1130" s="2"/>
-      <c r="F1130" s="2"/>
-      <c r="G1130" s="2"/>
-    </row>
-    <row r="1131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1131" s="2"/>
-      <c r="B1131" s="2"/>
-      <c r="C1131" s="2"/>
-      <c r="D1131" s="2"/>
-      <c r="E1131" s="2"/>
-      <c r="F1131" s="2"/>
-      <c r="G1131" s="2"/>
-    </row>
-    <row r="1132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1132" s="2"/>
-      <c r="B1132" s="2"/>
-      <c r="C1132" s="2"/>
-      <c r="D1132" s="2"/>
-      <c r="E1132" s="2"/>
-      <c r="F1132" s="2"/>
-      <c r="G1132" s="2"/>
-    </row>
-    <row r="1133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1133" s="2"/>
-      <c r="B1133" s="2"/>
-      <c r="C1133" s="2"/>
-      <c r="D1133" s="2"/>
-      <c r="E1133" s="2"/>
-      <c r="F1133" s="2"/>
-      <c r="G1133" s="2"/>
-    </row>
-    <row r="1134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1134" s="2"/>
-      <c r="B1134" s="2"/>
-      <c r="C1134" s="2"/>
-      <c r="D1134" s="2"/>
-      <c r="E1134" s="2"/>
-      <c r="F1134" s="2"/>
-      <c r="G1134" s="2"/>
-    </row>
-    <row r="1135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1135" s="2"/>
-      <c r="B1135" s="2"/>
-      <c r="C1135" s="2"/>
-      <c r="D1135" s="2"/>
-      <c r="E1135" s="2"/>
-      <c r="F1135" s="2"/>
-      <c r="G1135" s="2"/>
-    </row>
-    <row r="1136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1136" s="2"/>
-      <c r="B1136" s="2"/>
-      <c r="C1136" s="2"/>
-      <c r="D1136" s="2"/>
-      <c r="E1136" s="2"/>
-      <c r="F1136" s="2"/>
-      <c r="G1136" s="2"/>
-    </row>
-    <row r="1137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1137" s="2"/>
-      <c r="B1137" s="2"/>
-      <c r="C1137" s="2"/>
-      <c r="D1137" s="2"/>
-      <c r="E1137" s="2"/>
-      <c r="F1137" s="2"/>
-      <c r="G1137" s="2"/>
-    </row>
-    <row r="1138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1138" s="2"/>
-      <c r="B1138" s="2"/>
-      <c r="C1138" s="2"/>
-      <c r="D1138" s="2"/>
-      <c r="E1138" s="2"/>
-      <c r="F1138" s="2"/>
-      <c r="G1138" s="2"/>
-    </row>
-    <row r="1139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1139" s="2"/>
-      <c r="B1139" s="2"/>
-      <c r="C1139" s="2"/>
-      <c r="D1139" s="2"/>
-      <c r="E1139" s="2"/>
-      <c r="F1139" s="2"/>
-      <c r="G1139" s="2"/>
-    </row>
-    <row r="1140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1140" s="2"/>
-      <c r="B1140" s="2"/>
-      <c r="C1140" s="2"/>
-      <c r="D1140" s="2"/>
-      <c r="E1140" s="2"/>
-      <c r="F1140" s="2"/>
-      <c r="G1140" s="2"/>
-    </row>
-    <row r="1141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1141" s="2"/>
-      <c r="B1141" s="2"/>
-      <c r="C1141" s="2"/>
-      <c r="D1141" s="2"/>
-      <c r="E1141" s="2"/>
-      <c r="F1141" s="2"/>
-      <c r="G1141" s="2"/>
-    </row>
-    <row r="1142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1104" s="1">
+        <v>44991.678483796299</v>
+      </c>
+      <c r="B1104" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1104" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1104" s="2">
+        <v>9</v>
+      </c>
+      <c r="E1104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1104" s="2">
+        <v>11</v>
+      </c>
+      <c r="H1104" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1104" s="2"/>
+      <c r="J1104" s="2"/>
+      <c r="K1104" s="2"/>
+      <c r="L1104" s="2"/>
+      <c r="M1104" s="2"/>
+      <c r="N1104" s="2"/>
+      <c r="O1104" s="2"/>
+      <c r="P1104" s="2"/>
+      <c r="Q1104" s="2"/>
+      <c r="R1104" s="2"/>
+      <c r="S1104" s="2"/>
+      <c r="T1104" s="2"/>
+      <c r="U1104" s="2"/>
+      <c r="V1104" s="2"/>
+      <c r="W1104" s="2"/>
+      <c r="X1104" s="2"/>
+      <c r="Y1104" s="2"/>
+      <c r="Z1104" s="2"/>
+    </row>
+    <row r="1105" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1105" s="1">
+        <v>44991.704641203702</v>
+      </c>
+      <c r="B1105" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1105" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1105" s="2">
+        <v>11</v>
+      </c>
+      <c r="E1105" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1105" s="2">
+        <v>1</v>
+      </c>
+      <c r="H1105" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1105" s="2"/>
+      <c r="J1105" s="2"/>
+      <c r="K1105" s="2"/>
+      <c r="L1105" s="2"/>
+      <c r="M1105" s="2"/>
+      <c r="N1105" s="2"/>
+      <c r="O1105" s="2"/>
+      <c r="P1105" s="2"/>
+      <c r="Q1105" s="2"/>
+      <c r="R1105" s="2"/>
+      <c r="S1105" s="2"/>
+      <c r="T1105" s="2"/>
+      <c r="U1105" s="2"/>
+      <c r="V1105" s="2"/>
+      <c r="W1105" s="2"/>
+      <c r="X1105" s="2"/>
+      <c r="Y1105" s="2"/>
+      <c r="Z1105" s="2"/>
+    </row>
+    <row r="1106" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1106" s="1">
+        <v>44991.705092592594</v>
+      </c>
+      <c r="B1106" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1106" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1106" s="2">
+        <v>11</v>
+      </c>
+      <c r="E1106" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1106" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1106" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1106" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1106" s="2"/>
+      <c r="J1106" s="2"/>
+      <c r="K1106" s="2"/>
+      <c r="L1106" s="2"/>
+      <c r="M1106" s="2"/>
+      <c r="N1106" s="2"/>
+      <c r="O1106" s="2"/>
+      <c r="P1106" s="2"/>
+      <c r="Q1106" s="2"/>
+      <c r="R1106" s="2"/>
+      <c r="S1106" s="2"/>
+      <c r="T1106" s="2"/>
+      <c r="U1106" s="2"/>
+      <c r="V1106" s="2"/>
+      <c r="W1106" s="2"/>
+      <c r="X1106" s="2"/>
+      <c r="Y1106" s="2"/>
+      <c r="Z1106" s="2"/>
+    </row>
+    <row r="1107" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1107" s="1">
+        <v>44991.712824074071</v>
+      </c>
+      <c r="B1107" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1107" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1107" s="2">
+        <v>11</v>
+      </c>
+      <c r="E1107" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1107" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1107" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1107" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1107" s="2"/>
+      <c r="J1107" s="2"/>
+      <c r="K1107" s="2"/>
+      <c r="L1107" s="2"/>
+      <c r="M1107" s="2"/>
+      <c r="N1107" s="2"/>
+      <c r="O1107" s="2"/>
+      <c r="P1107" s="2"/>
+      <c r="Q1107" s="2"/>
+      <c r="R1107" s="2"/>
+      <c r="S1107" s="2"/>
+      <c r="T1107" s="2"/>
+      <c r="U1107" s="2"/>
+      <c r="V1107" s="2"/>
+      <c r="W1107" s="2"/>
+      <c r="X1107" s="2"/>
+      <c r="Y1107" s="2"/>
+      <c r="Z1107" s="2"/>
+    </row>
+    <row r="1108" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1108" s="1">
+        <v>44992.537002314813</v>
+      </c>
+      <c r="B1108" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1108" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1108" s="2">
+        <v>7</v>
+      </c>
+      <c r="E1108" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1108" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1108" s="2">
+        <v>11</v>
+      </c>
+      <c r="H1108" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1108" s="2"/>
+      <c r="J1108" s="2"/>
+      <c r="K1108" s="2"/>
+      <c r="L1108" s="2"/>
+      <c r="M1108" s="2"/>
+      <c r="N1108" s="2"/>
+      <c r="O1108" s="2"/>
+      <c r="P1108" s="2"/>
+      <c r="Q1108" s="2"/>
+      <c r="R1108" s="2"/>
+      <c r="S1108" s="2"/>
+      <c r="T1108" s="2"/>
+      <c r="U1108" s="2"/>
+      <c r="V1108" s="2"/>
+      <c r="W1108" s="2"/>
+      <c r="X1108" s="2"/>
+      <c r="Y1108" s="2"/>
+      <c r="Z1108" s="2"/>
+    </row>
+    <row r="1109" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1109" s="1">
+        <v>44992.547951388886</v>
+      </c>
+      <c r="B1109" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1109" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1109" s="2">
+        <v>8</v>
+      </c>
+      <c r="E1109" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1109" s="2">
+        <v>11</v>
+      </c>
+      <c r="H1109" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1109" s="2"/>
+      <c r="J1109" s="2"/>
+      <c r="K1109" s="2"/>
+      <c r="L1109" s="2"/>
+      <c r="M1109" s="2"/>
+      <c r="N1109" s="2"/>
+      <c r="O1109" s="2"/>
+      <c r="P1109" s="2"/>
+      <c r="Q1109" s="2"/>
+      <c r="R1109" s="2"/>
+      <c r="S1109" s="2"/>
+      <c r="T1109" s="2"/>
+      <c r="U1109" s="2"/>
+      <c r="V1109" s="2"/>
+      <c r="W1109" s="2"/>
+      <c r="X1109" s="2"/>
+      <c r="Y1109" s="2"/>
+      <c r="Z1109" s="2"/>
+    </row>
+    <row r="1110" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1110" s="1">
+        <v>44992.700243055559</v>
+      </c>
+      <c r="B1110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1110" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1110" s="2">
+        <v>11</v>
+      </c>
+      <c r="E1110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1110" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1110" s="2">
+        <v>3</v>
+      </c>
+      <c r="H1110" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1110" s="2"/>
+      <c r="J1110" s="2"/>
+      <c r="K1110" s="2"/>
+      <c r="L1110" s="2"/>
+      <c r="M1110" s="2"/>
+      <c r="N1110" s="2"/>
+      <c r="O1110" s="2"/>
+      <c r="P1110" s="2"/>
+      <c r="Q1110" s="2"/>
+      <c r="R1110" s="2"/>
+      <c r="S1110" s="2"/>
+      <c r="T1110" s="2"/>
+      <c r="U1110" s="2"/>
+      <c r="V1110" s="2"/>
+      <c r="W1110" s="2"/>
+      <c r="X1110" s="2"/>
+      <c r="Y1110" s="2"/>
+      <c r="Z1110" s="2"/>
+    </row>
+    <row r="1111" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1111" s="1">
+        <v>44992.701006944444</v>
+      </c>
+      <c r="B1111" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1111" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1111" s="2">
+        <v>9</v>
+      </c>
+      <c r="E1111" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1111" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1111" s="2">
+        <v>11</v>
+      </c>
+      <c r="H1111" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1111" s="2"/>
+      <c r="J1111" s="2"/>
+      <c r="K1111" s="2"/>
+      <c r="L1111" s="2"/>
+      <c r="M1111" s="2"/>
+      <c r="N1111" s="2"/>
+      <c r="O1111" s="2"/>
+      <c r="P1111" s="2"/>
+      <c r="Q1111" s="2"/>
+      <c r="R1111" s="2"/>
+      <c r="S1111" s="2"/>
+      <c r="T1111" s="2"/>
+      <c r="U1111" s="2"/>
+      <c r="V1111" s="2"/>
+      <c r="W1111" s="2"/>
+      <c r="X1111" s="2"/>
+      <c r="Y1111" s="2"/>
+      <c r="Z1111" s="2"/>
+    </row>
+    <row r="1112" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1112" s="1">
+        <v>44992.702557870369</v>
+      </c>
+      <c r="B1112" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1112" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1112" s="2">
+        <v>10</v>
+      </c>
+      <c r="E1112" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1112" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1112" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1112" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1112" s="2"/>
+      <c r="J1112" s="2"/>
+      <c r="K1112" s="2"/>
+      <c r="L1112" s="2"/>
+      <c r="M1112" s="2"/>
+      <c r="N1112" s="2"/>
+      <c r="O1112" s="2"/>
+      <c r="P1112" s="2"/>
+      <c r="Q1112" s="2"/>
+      <c r="R1112" s="2"/>
+      <c r="S1112" s="2"/>
+      <c r="T1112" s="2"/>
+      <c r="U1112" s="2"/>
+      <c r="V1112" s="2"/>
+      <c r="W1112" s="2"/>
+      <c r="X1112" s="2"/>
+      <c r="Y1112" s="2"/>
+      <c r="Z1112" s="2"/>
+    </row>
+    <row r="1113" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1113" s="1">
+        <v>44992.831331018519</v>
+      </c>
+      <c r="B1113" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1113" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1113" s="2">
+        <v>8</v>
+      </c>
+      <c r="E1113" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1113" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1113" s="2">
+        <v>11</v>
+      </c>
+      <c r="H1113" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1113" s="2"/>
+      <c r="J1113" s="2"/>
+      <c r="K1113" s="2"/>
+      <c r="L1113" s="2"/>
+      <c r="M1113" s="2"/>
+      <c r="N1113" s="2"/>
+      <c r="O1113" s="2"/>
+      <c r="P1113" s="2"/>
+      <c r="Q1113" s="2"/>
+      <c r="R1113" s="2"/>
+      <c r="S1113" s="2"/>
+      <c r="T1113" s="2"/>
+      <c r="U1113" s="2"/>
+      <c r="V1113" s="2"/>
+      <c r="W1113" s="2"/>
+      <c r="X1113" s="2"/>
+      <c r="Y1113" s="2"/>
+      <c r="Z1113" s="2"/>
+    </row>
+    <row r="1114" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1114" s="1">
+        <v>44992.840462962966</v>
+      </c>
+      <c r="B1114" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1114" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1114" s="2">
+        <v>11</v>
+      </c>
+      <c r="E1114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1114" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1114" s="2">
+        <v>8</v>
+      </c>
+      <c r="H1114" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1114" s="2"/>
+      <c r="J1114" s="2"/>
+      <c r="K1114" s="2"/>
+      <c r="L1114" s="2"/>
+      <c r="M1114" s="2"/>
+      <c r="N1114" s="2"/>
+      <c r="O1114" s="2"/>
+      <c r="P1114" s="2"/>
+      <c r="Q1114" s="2"/>
+      <c r="R1114" s="2"/>
+      <c r="S1114" s="2"/>
+      <c r="T1114" s="2"/>
+      <c r="U1114" s="2"/>
+      <c r="V1114" s="2"/>
+      <c r="W1114" s="2"/>
+      <c r="X1114" s="2"/>
+      <c r="Y1114" s="2"/>
+      <c r="Z1114" s="2"/>
+    </row>
+    <row r="1115" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1115" s="1">
+        <v>44993.546006944445</v>
+      </c>
+      <c r="B1115" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1115" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1115" s="2">
+        <v>10</v>
+      </c>
+      <c r="E1115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1115" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1115" s="2">
+        <v>11</v>
+      </c>
+      <c r="H1115" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1115" s="2"/>
+      <c r="J1115" s="2"/>
+      <c r="K1115" s="2"/>
+      <c r="L1115" s="2"/>
+      <c r="M1115" s="2"/>
+      <c r="N1115" s="2"/>
+      <c r="O1115" s="2"/>
+      <c r="P1115" s="2"/>
+      <c r="Q1115" s="2"/>
+      <c r="R1115" s="2"/>
+      <c r="S1115" s="2"/>
+      <c r="T1115" s="2"/>
+      <c r="U1115" s="2"/>
+      <c r="V1115" s="2"/>
+      <c r="W1115" s="2"/>
+      <c r="X1115" s="2"/>
+      <c r="Y1115" s="2"/>
+      <c r="Z1115" s="2"/>
+    </row>
+    <row r="1116" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1116" s="1">
+        <v>44993.687152777777</v>
+      </c>
+      <c r="B1116" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1116" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1116" s="2">
+        <v>11</v>
+      </c>
+      <c r="E1116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1116" s="2">
+        <v>10</v>
+      </c>
+      <c r="H1116" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1116" s="2"/>
+      <c r="J1116" s="2"/>
+      <c r="K1116" s="2"/>
+      <c r="L1116" s="2"/>
+      <c r="M1116" s="2"/>
+      <c r="N1116" s="2"/>
+      <c r="O1116" s="2"/>
+      <c r="P1116" s="2"/>
+      <c r="Q1116" s="2"/>
+      <c r="R1116" s="2"/>
+      <c r="S1116" s="2"/>
+      <c r="T1116" s="2"/>
+      <c r="U1116" s="2"/>
+      <c r="V1116" s="2"/>
+      <c r="W1116" s="2"/>
+      <c r="X1116" s="2"/>
+      <c r="Y1116" s="2"/>
+      <c r="Z1116" s="2"/>
+    </row>
+    <row r="1117" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1117" s="1">
+        <v>44993.687650462962</v>
+      </c>
+      <c r="B1117" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1117" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1117" s="2">
+        <v>11</v>
+      </c>
+      <c r="E1117" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1117" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1117" s="2">
+        <v>10</v>
+      </c>
+      <c r="H1117" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1117" s="2"/>
+      <c r="J1117" s="2"/>
+      <c r="K1117" s="2"/>
+      <c r="L1117" s="2"/>
+      <c r="M1117" s="2"/>
+      <c r="N1117" s="2"/>
+      <c r="O1117" s="2"/>
+      <c r="P1117" s="2"/>
+      <c r="Q1117" s="2"/>
+      <c r="R1117" s="2"/>
+      <c r="S1117" s="2"/>
+      <c r="T1117" s="2"/>
+      <c r="U1117" s="2"/>
+      <c r="V1117" s="2"/>
+      <c r="W1117" s="2"/>
+      <c r="X1117" s="2"/>
+      <c r="Y1117" s="2"/>
+      <c r="Z1117" s="2"/>
+    </row>
+    <row r="1118" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1118" s="1">
+        <v>44993.72284722222</v>
+      </c>
+      <c r="B1118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1118" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1118" s="2">
+        <v>11</v>
+      </c>
+      <c r="E1118" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1118" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1118" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1118" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1118" s="2"/>
+      <c r="J1118" s="2"/>
+      <c r="K1118" s="2"/>
+      <c r="L1118" s="2"/>
+      <c r="M1118" s="2"/>
+      <c r="N1118" s="2"/>
+      <c r="O1118" s="2"/>
+      <c r="P1118" s="2"/>
+      <c r="Q1118" s="2"/>
+      <c r="R1118" s="2"/>
+      <c r="S1118" s="2"/>
+      <c r="T1118" s="2"/>
+      <c r="U1118" s="2"/>
+      <c r="V1118" s="2"/>
+      <c r="W1118" s="2"/>
+      <c r="X1118" s="2"/>
+      <c r="Y1118" s="2"/>
+      <c r="Z1118" s="2"/>
+    </row>
+    <row r="1119" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1119" s="1">
+        <v>44993.767685185187</v>
+      </c>
+      <c r="B1119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1119" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1119" s="2">
+        <v>11</v>
+      </c>
+      <c r="E1119" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1119" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1119" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1119" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1119" s="2"/>
+      <c r="J1119" s="2"/>
+      <c r="K1119" s="2"/>
+      <c r="L1119" s="2"/>
+      <c r="M1119" s="2"/>
+      <c r="N1119" s="2"/>
+      <c r="O1119" s="2"/>
+      <c r="P1119" s="2"/>
+      <c r="Q1119" s="2"/>
+      <c r="R1119" s="2"/>
+      <c r="S1119" s="2"/>
+      <c r="T1119" s="2"/>
+      <c r="U1119" s="2"/>
+      <c r="V1119" s="2"/>
+      <c r="W1119" s="2"/>
+      <c r="X1119" s="2"/>
+      <c r="Y1119" s="2"/>
+      <c r="Z1119" s="2"/>
+    </row>
+    <row r="1120" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1120" s="1">
+        <v>44998.535740740743</v>
+      </c>
+      <c r="B1120" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1120" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1120" s="2">
+        <v>11</v>
+      </c>
+      <c r="E1120" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1120" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1120" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1120" s="2"/>
+      <c r="J1120" s="2"/>
+      <c r="K1120" s="2"/>
+      <c r="L1120" s="2"/>
+      <c r="M1120" s="2"/>
+      <c r="N1120" s="2"/>
+      <c r="O1120" s="2"/>
+      <c r="P1120" s="2"/>
+      <c r="Q1120" s="2"/>
+      <c r="R1120" s="2"/>
+      <c r="S1120" s="2"/>
+      <c r="T1120" s="2"/>
+      <c r="U1120" s="2"/>
+      <c r="V1120" s="2"/>
+      <c r="W1120" s="2"/>
+      <c r="X1120" s="2"/>
+      <c r="Y1120" s="2"/>
+      <c r="Z1120" s="2"/>
+    </row>
+    <row r="1121" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1121" s="1">
+        <v>44998.685277777775</v>
+      </c>
+      <c r="B1121" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1121" s="2">
+        <v>11</v>
+      </c>
+      <c r="E1121" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1121" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1121" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1121" s="2"/>
+      <c r="J1121" s="2"/>
+      <c r="K1121" s="2"/>
+      <c r="L1121" s="2"/>
+      <c r="M1121" s="2"/>
+      <c r="N1121" s="2"/>
+      <c r="O1121" s="2"/>
+      <c r="P1121" s="2"/>
+      <c r="Q1121" s="2"/>
+      <c r="R1121" s="2"/>
+      <c r="S1121" s="2"/>
+      <c r="T1121" s="2"/>
+      <c r="U1121" s="2"/>
+      <c r="V1121" s="2"/>
+      <c r="W1121" s="2"/>
+      <c r="X1121" s="2"/>
+      <c r="Y1121" s="2"/>
+      <c r="Z1121" s="2"/>
+    </row>
+    <row r="1122" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1122" s="1">
+        <v>44998.685937499999</v>
+      </c>
+      <c r="B1122" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1122" s="2">
+        <v>11</v>
+      </c>
+      <c r="E1122" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1122" s="2">
+        <v>8</v>
+      </c>
+      <c r="H1122" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1122" s="2"/>
+      <c r="J1122" s="2"/>
+      <c r="K1122" s="2"/>
+      <c r="L1122" s="2"/>
+      <c r="M1122" s="2"/>
+      <c r="N1122" s="2"/>
+      <c r="O1122" s="2"/>
+      <c r="P1122" s="2"/>
+      <c r="Q1122" s="2"/>
+      <c r="R1122" s="2"/>
+      <c r="S1122" s="2"/>
+      <c r="T1122" s="2"/>
+      <c r="U1122" s="2"/>
+      <c r="V1122" s="2"/>
+      <c r="W1122" s="2"/>
+      <c r="X1122" s="2"/>
+      <c r="Y1122" s="2"/>
+      <c r="Z1122" s="2"/>
+    </row>
+    <row r="1123" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1123" s="1">
+        <v>44999.541562500002</v>
+      </c>
+      <c r="B1123" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1123" s="2">
+        <v>11</v>
+      </c>
+      <c r="E1123" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1123" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1123" s="2">
+        <v>9</v>
+      </c>
+      <c r="H1123" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1123" s="2"/>
+      <c r="J1123" s="2"/>
+      <c r="K1123" s="2"/>
+      <c r="L1123" s="2"/>
+      <c r="M1123" s="2"/>
+      <c r="N1123" s="2"/>
+      <c r="O1123" s="2"/>
+      <c r="P1123" s="2"/>
+      <c r="Q1123" s="2"/>
+      <c r="R1123" s="2"/>
+      <c r="S1123" s="2"/>
+      <c r="T1123" s="2"/>
+      <c r="U1123" s="2"/>
+      <c r="V1123" s="2"/>
+      <c r="W1123" s="2"/>
+      <c r="X1123" s="2"/>
+      <c r="Y1123" s="2"/>
+      <c r="Z1123" s="2"/>
+    </row>
+    <row r="1124" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1124" s="1">
+        <v>44999.686365740738</v>
+      </c>
+      <c r="B1124" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1124" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1124" s="2">
+        <v>11</v>
+      </c>
+      <c r="E1124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1124" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1124" s="2">
+        <v>8</v>
+      </c>
+      <c r="H1124" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1124" s="2"/>
+      <c r="J1124" s="2"/>
+      <c r="K1124" s="2"/>
+      <c r="L1124" s="2"/>
+      <c r="M1124" s="2"/>
+      <c r="N1124" s="2"/>
+      <c r="O1124" s="2"/>
+      <c r="P1124" s="2"/>
+      <c r="Q1124" s="2"/>
+      <c r="R1124" s="2"/>
+      <c r="S1124" s="2"/>
+      <c r="T1124" s="2"/>
+      <c r="U1124" s="2"/>
+      <c r="V1124" s="2"/>
+      <c r="W1124" s="2"/>
+      <c r="X1124" s="2"/>
+      <c r="Y1124" s="2"/>
+      <c r="Z1124" s="2"/>
+    </row>
+    <row r="1125" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1125" s="1">
+        <v>44999.711759259262</v>
+      </c>
+      <c r="B1125" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1125" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1125" s="2">
+        <v>11</v>
+      </c>
+      <c r="E1125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1125" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1125" s="2">
+        <v>3</v>
+      </c>
+      <c r="H1125" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1125" s="2"/>
+      <c r="J1125" s="2"/>
+      <c r="K1125" s="2"/>
+      <c r="L1125" s="2"/>
+      <c r="M1125" s="2"/>
+      <c r="N1125" s="2"/>
+      <c r="O1125" s="2"/>
+      <c r="P1125" s="2"/>
+      <c r="Q1125" s="2"/>
+      <c r="R1125" s="2"/>
+      <c r="S1125" s="2"/>
+      <c r="T1125" s="2"/>
+      <c r="U1125" s="2"/>
+      <c r="V1125" s="2"/>
+      <c r="W1125" s="2"/>
+      <c r="X1125" s="2"/>
+      <c r="Y1125" s="2"/>
+      <c r="Z1125" s="2"/>
+    </row>
+    <row r="1126" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1126" s="1">
+        <v>44999.712361111109</v>
+      </c>
+      <c r="B1126" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1126" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1126" s="2">
+        <v>11</v>
+      </c>
+      <c r="E1126" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1126" s="2">
+        <v>8</v>
+      </c>
+      <c r="H1126" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1126" s="2"/>
+      <c r="J1126" s="2"/>
+      <c r="K1126" s="2"/>
+      <c r="L1126" s="2"/>
+      <c r="M1126" s="2"/>
+      <c r="N1126" s="2"/>
+      <c r="O1126" s="2"/>
+      <c r="P1126" s="2"/>
+      <c r="Q1126" s="2"/>
+      <c r="R1126" s="2"/>
+      <c r="S1126" s="2"/>
+      <c r="T1126" s="2"/>
+      <c r="U1126" s="2"/>
+      <c r="V1126" s="2"/>
+      <c r="W1126" s="2"/>
+      <c r="X1126" s="2"/>
+      <c r="Y1126" s="2"/>
+      <c r="Z1126" s="2"/>
+    </row>
+    <row r="1127" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1127" s="1">
+        <v>45000.355752314812</v>
+      </c>
+      <c r="B1127" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1127" s="2">
+        <v>11</v>
+      </c>
+      <c r="E1127" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1127" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1127" s="2">
+        <v>8</v>
+      </c>
+      <c r="H1127" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1127" s="2"/>
+      <c r="J1127" s="2"/>
+      <c r="K1127" s="2"/>
+      <c r="L1127" s="2"/>
+      <c r="M1127" s="2"/>
+      <c r="N1127" s="2"/>
+      <c r="O1127" s="2"/>
+      <c r="P1127" s="2"/>
+      <c r="Q1127" s="2"/>
+      <c r="R1127" s="2"/>
+      <c r="S1127" s="2"/>
+      <c r="T1127" s="2"/>
+      <c r="U1127" s="2"/>
+      <c r="V1127" s="2"/>
+      <c r="W1127" s="2"/>
+      <c r="X1127" s="2"/>
+      <c r="Y1127" s="2"/>
+      <c r="Z1127" s="2"/>
+    </row>
+    <row r="1128" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1128" s="1">
+        <v>45000.534756944442</v>
+      </c>
+      <c r="B1128" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1128" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1128" s="2">
+        <v>11</v>
+      </c>
+      <c r="E1128" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1128" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1128" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1128" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1128" s="2"/>
+      <c r="J1128" s="2"/>
+      <c r="K1128" s="2"/>
+      <c r="L1128" s="2"/>
+      <c r="M1128" s="2"/>
+      <c r="N1128" s="2"/>
+      <c r="O1128" s="2"/>
+      <c r="P1128" s="2"/>
+      <c r="Q1128" s="2"/>
+      <c r="R1128" s="2"/>
+      <c r="S1128" s="2"/>
+      <c r="T1128" s="2"/>
+      <c r="U1128" s="2"/>
+      <c r="V1128" s="2"/>
+      <c r="W1128" s="2"/>
+      <c r="X1128" s="2"/>
+      <c r="Y1128" s="2"/>
+      <c r="Z1128" s="2"/>
+    </row>
+    <row r="1129" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1129" s="1">
+        <v>45000.5549537037</v>
+      </c>
+      <c r="B1129" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1129" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1129" s="2">
+        <v>9</v>
+      </c>
+      <c r="E1129" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1129" s="2">
+        <v>11</v>
+      </c>
+      <c r="H1129" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1129" s="2"/>
+      <c r="J1129" s="2"/>
+      <c r="K1129" s="2"/>
+      <c r="L1129" s="2"/>
+      <c r="M1129" s="2"/>
+      <c r="N1129" s="2"/>
+      <c r="O1129" s="2"/>
+      <c r="P1129" s="2"/>
+      <c r="Q1129" s="2"/>
+      <c r="R1129" s="2"/>
+      <c r="S1129" s="2"/>
+      <c r="T1129" s="2"/>
+      <c r="U1129" s="2"/>
+      <c r="V1129" s="2"/>
+      <c r="W1129" s="2"/>
+      <c r="X1129" s="2"/>
+      <c r="Y1129" s="2"/>
+      <c r="Z1129" s="2"/>
+    </row>
+    <row r="1130" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1130" s="1">
+        <v>45000.676203703704</v>
+      </c>
+      <c r="B1130" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1130" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1130" s="2">
+        <v>11</v>
+      </c>
+      <c r="E1130" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1130" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1130" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1130" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1130" s="2"/>
+      <c r="J1130" s="2"/>
+      <c r="K1130" s="2"/>
+      <c r="L1130" s="2"/>
+      <c r="M1130" s="2"/>
+      <c r="N1130" s="2"/>
+      <c r="O1130" s="2"/>
+      <c r="P1130" s="2"/>
+      <c r="Q1130" s="2"/>
+      <c r="R1130" s="2"/>
+      <c r="S1130" s="2"/>
+      <c r="T1130" s="2"/>
+      <c r="U1130" s="2"/>
+      <c r="V1130" s="2"/>
+      <c r="W1130" s="2"/>
+      <c r="X1130" s="2"/>
+      <c r="Y1130" s="2"/>
+      <c r="Z1130" s="2"/>
+    </row>
+    <row r="1131" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1131" s="1">
+        <v>45000.691122685188</v>
+      </c>
+      <c r="B1131" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1131" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1131" s="2">
+        <v>11</v>
+      </c>
+      <c r="E1131" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1131" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1131" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1131" s="2"/>
+      <c r="J1131" s="2"/>
+      <c r="K1131" s="2"/>
+      <c r="L1131" s="2"/>
+      <c r="M1131" s="2"/>
+      <c r="N1131" s="2"/>
+      <c r="O1131" s="2"/>
+      <c r="P1131" s="2"/>
+      <c r="Q1131" s="2"/>
+      <c r="R1131" s="2"/>
+      <c r="S1131" s="2"/>
+      <c r="T1131" s="2"/>
+      <c r="U1131" s="2"/>
+      <c r="V1131" s="2"/>
+      <c r="W1131" s="2"/>
+      <c r="X1131" s="2"/>
+      <c r="Y1131" s="2"/>
+      <c r="Z1131" s="2"/>
+    </row>
+    <row r="1132" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1132" s="1">
+        <v>45005.538969907408</v>
+      </c>
+      <c r="B1132" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1132" s="2">
+        <v>8</v>
+      </c>
+      <c r="E1132" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1132" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1132" s="2">
+        <v>11</v>
+      </c>
+      <c r="H1132" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1132" s="2"/>
+      <c r="J1132" s="2"/>
+      <c r="K1132" s="2"/>
+      <c r="L1132" s="2"/>
+      <c r="M1132" s="2"/>
+      <c r="N1132" s="2"/>
+      <c r="O1132" s="2"/>
+      <c r="P1132" s="2"/>
+      <c r="Q1132" s="2"/>
+      <c r="R1132" s="2"/>
+      <c r="S1132" s="2"/>
+      <c r="T1132" s="2"/>
+      <c r="U1132" s="2"/>
+      <c r="V1132" s="2"/>
+      <c r="W1132" s="2"/>
+      <c r="X1132" s="2"/>
+      <c r="Y1132" s="2"/>
+      <c r="Z1132" s="2"/>
+    </row>
+    <row r="1133" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1133" s="1">
+        <v>45005.539629629631</v>
+      </c>
+      <c r="B1133" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1133" s="2">
+        <v>8</v>
+      </c>
+      <c r="E1133" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1133" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1133" s="2">
+        <v>11</v>
+      </c>
+      <c r="H1133" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1133" s="2"/>
+      <c r="J1133" s="2"/>
+      <c r="K1133" s="2"/>
+      <c r="L1133" s="2"/>
+      <c r="M1133" s="2"/>
+      <c r="N1133" s="2"/>
+      <c r="O1133" s="2"/>
+      <c r="P1133" s="2"/>
+      <c r="Q1133" s="2"/>
+      <c r="R1133" s="2"/>
+      <c r="S1133" s="2"/>
+      <c r="T1133" s="2"/>
+      <c r="U1133" s="2"/>
+      <c r="V1133" s="2"/>
+      <c r="W1133" s="2"/>
+      <c r="X1133" s="2"/>
+      <c r="Y1133" s="2"/>
+      <c r="Z1133" s="2"/>
+    </row>
+    <row r="1134" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1134" s="1">
+        <v>45005.58866898148</v>
+      </c>
+      <c r="B1134" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1134" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1134" s="2">
+        <v>11</v>
+      </c>
+      <c r="E1134" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1134" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1134" s="2">
+        <v>9</v>
+      </c>
+      <c r="H1134" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1134" s="2"/>
+      <c r="J1134" s="2"/>
+      <c r="K1134" s="2"/>
+      <c r="L1134" s="2"/>
+      <c r="M1134" s="2"/>
+      <c r="N1134" s="2"/>
+      <c r="O1134" s="2"/>
+      <c r="P1134" s="2"/>
+      <c r="Q1134" s="2"/>
+      <c r="R1134" s="2"/>
+      <c r="S1134" s="2"/>
+      <c r="T1134" s="2"/>
+      <c r="U1134" s="2"/>
+      <c r="V1134" s="2"/>
+      <c r="W1134" s="2"/>
+      <c r="X1134" s="2"/>
+      <c r="Y1134" s="2"/>
+      <c r="Z1134" s="2"/>
+    </row>
+    <row r="1135" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1135" s="1">
+        <v>45005.685185185182</v>
+      </c>
+      <c r="B1135" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1135" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1135" s="2">
+        <v>11</v>
+      </c>
+      <c r="E1135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1135" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1135" s="2">
+        <v>8</v>
+      </c>
+      <c r="H1135" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1135" s="2"/>
+      <c r="J1135" s="2"/>
+      <c r="K1135" s="2"/>
+      <c r="L1135" s="2"/>
+      <c r="M1135" s="2"/>
+      <c r="N1135" s="2"/>
+      <c r="O1135" s="2"/>
+      <c r="P1135" s="2"/>
+      <c r="Q1135" s="2"/>
+      <c r="R1135" s="2"/>
+      <c r="S1135" s="2"/>
+      <c r="T1135" s="2"/>
+      <c r="U1135" s="2"/>
+      <c r="V1135" s="2"/>
+      <c r="W1135" s="2"/>
+      <c r="X1135" s="2"/>
+      <c r="Y1135" s="2"/>
+      <c r="Z1135" s="2"/>
+    </row>
+    <row r="1136" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1136" s="1">
+        <v>45005.703020833331</v>
+      </c>
+      <c r="B1136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1136" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1136" s="2">
+        <v>11</v>
+      </c>
+      <c r="E1136" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1136" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1136" s="2">
+        <v>8</v>
+      </c>
+      <c r="H1136" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1136" s="2"/>
+      <c r="J1136" s="2"/>
+      <c r="K1136" s="2"/>
+      <c r="L1136" s="2"/>
+      <c r="M1136" s="2"/>
+      <c r="N1136" s="2"/>
+      <c r="O1136" s="2"/>
+      <c r="P1136" s="2"/>
+      <c r="Q1136" s="2"/>
+      <c r="R1136" s="2"/>
+      <c r="S1136" s="2"/>
+      <c r="T1136" s="2"/>
+      <c r="U1136" s="2"/>
+      <c r="V1136" s="2"/>
+      <c r="W1136" s="2"/>
+      <c r="X1136" s="2"/>
+      <c r="Y1136" s="2"/>
+      <c r="Z1136" s="2"/>
+    </row>
+    <row r="1137" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1137" s="1">
+        <v>45005.737291666665</v>
+      </c>
+      <c r="B1137" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1137" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1137" s="2">
+        <v>11</v>
+      </c>
+      <c r="E1137" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1137" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1137" s="2">
+        <v>7</v>
+      </c>
+      <c r="H1137" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1137" s="2"/>
+      <c r="J1137" s="2"/>
+      <c r="K1137" s="2"/>
+      <c r="L1137" s="2"/>
+      <c r="M1137" s="2"/>
+      <c r="N1137" s="2"/>
+      <c r="O1137" s="2"/>
+      <c r="P1137" s="2"/>
+      <c r="Q1137" s="2"/>
+      <c r="R1137" s="2"/>
+      <c r="S1137" s="2"/>
+      <c r="T1137" s="2"/>
+      <c r="U1137" s="2"/>
+      <c r="V1137" s="2"/>
+      <c r="W1137" s="2"/>
+      <c r="X1137" s="2"/>
+      <c r="Y1137" s="2"/>
+      <c r="Z1137" s="2"/>
+    </row>
+    <row r="1138" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1138" s="1">
+        <v>45007.529803240737</v>
+      </c>
+      <c r="B1138" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1138" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1138" s="2">
+        <v>11</v>
+      </c>
+      <c r="E1138" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1138" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1138" s="2">
+        <v>10</v>
+      </c>
+      <c r="H1138" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1138" s="2"/>
+      <c r="J1138" s="2"/>
+      <c r="K1138" s="2"/>
+      <c r="L1138" s="2"/>
+      <c r="M1138" s="2"/>
+      <c r="N1138" s="2"/>
+      <c r="O1138" s="2"/>
+      <c r="P1138" s="2"/>
+      <c r="Q1138" s="2"/>
+      <c r="R1138" s="2"/>
+      <c r="S1138" s="2"/>
+      <c r="T1138" s="2"/>
+      <c r="U1138" s="2"/>
+      <c r="V1138" s="2"/>
+      <c r="W1138" s="2"/>
+      <c r="X1138" s="2"/>
+      <c r="Y1138" s="2"/>
+      <c r="Z1138" s="2"/>
+    </row>
+    <row r="1139" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1139" s="1">
+        <v>45007.551504629628</v>
+      </c>
+      <c r="B1139" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1139" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1139" s="2">
+        <v>11</v>
+      </c>
+      <c r="E1139" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1139" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1139" s="2">
+        <v>9</v>
+      </c>
+      <c r="H1139" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1139" s="2"/>
+      <c r="J1139" s="2"/>
+      <c r="K1139" s="2"/>
+      <c r="L1139" s="2"/>
+      <c r="M1139" s="2"/>
+      <c r="N1139" s="2"/>
+      <c r="O1139" s="2"/>
+      <c r="P1139" s="2"/>
+      <c r="Q1139" s="2"/>
+      <c r="R1139" s="2"/>
+      <c r="S1139" s="2"/>
+      <c r="T1139" s="2"/>
+      <c r="U1139" s="2"/>
+      <c r="V1139" s="2"/>
+      <c r="W1139" s="2"/>
+      <c r="X1139" s="2"/>
+      <c r="Y1139" s="2"/>
+      <c r="Z1139" s="2"/>
+    </row>
+    <row r="1140" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1140" s="1">
+        <v>45007.553402777776</v>
+      </c>
+      <c r="B1140" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1140" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1140" s="2">
+        <v>11</v>
+      </c>
+      <c r="E1140" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1140" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1140" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1140" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1140" s="2"/>
+      <c r="J1140" s="2"/>
+      <c r="K1140" s="2"/>
+      <c r="L1140" s="2"/>
+      <c r="M1140" s="2"/>
+      <c r="N1140" s="2"/>
+      <c r="O1140" s="2"/>
+      <c r="P1140" s="2"/>
+      <c r="Q1140" s="2"/>
+      <c r="R1140" s="2"/>
+      <c r="S1140" s="2"/>
+      <c r="T1140" s="2"/>
+      <c r="U1140" s="2"/>
+      <c r="V1140" s="2"/>
+      <c r="W1140" s="2"/>
+      <c r="X1140" s="2"/>
+      <c r="Y1140" s="2"/>
+      <c r="Z1140" s="2"/>
+    </row>
+    <row r="1141" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1141" s="1">
+        <v>45007.673194444447</v>
+      </c>
+      <c r="B1141" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1141" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1141" s="2">
+        <v>11</v>
+      </c>
+      <c r="E1141" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1141" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1141" s="2">
+        <v>2</v>
+      </c>
+      <c r="H1141" t="str">
+        <f t="shared" si="17"/>
+        <v>ok</v>
+      </c>
+      <c r="I1141" s="2"/>
+      <c r="J1141" s="2"/>
+      <c r="K1141" s="2"/>
+      <c r="L1141" s="2"/>
+      <c r="M1141" s="2"/>
+      <c r="N1141" s="2"/>
+      <c r="O1141" s="2"/>
+      <c r="P1141" s="2"/>
+      <c r="Q1141" s="2"/>
+      <c r="R1141" s="2"/>
+      <c r="S1141" s="2"/>
+      <c r="T1141" s="2"/>
+      <c r="U1141" s="2"/>
+      <c r="V1141" s="2"/>
+      <c r="W1141" s="2"/>
+      <c r="X1141" s="2"/>
+      <c r="Y1141" s="2"/>
+    </row>
+    <row r="1142" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1142" s="2"/>
       <c r="B1142" s="2"/>
       <c r="C1142" s="2"/>
@@ -31493,7 +33148,7 @@
       <c r="F1142" s="2"/>
       <c r="G1142" s="2"/>
     </row>
-    <row r="1143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1143" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1143" s="2"/>
       <c r="B1143" s="2"/>
       <c r="C1143" s="2"/>
@@ -31502,7 +33157,7 @@
       <c r="F1143" s="2"/>
       <c r="G1143" s="2"/>
     </row>
-    <row r="1144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1144" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1144" s="2"/>
       <c r="B1144" s="2"/>
       <c r="C1144" s="2"/>
@@ -31511,7 +33166,7 @@
       <c r="F1144" s="2"/>
       <c r="G1144" s="2"/>
     </row>
-    <row r="1145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1145" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1145" s="2"/>
       <c r="B1145" s="2"/>
       <c r="C1145" s="2"/>
@@ -31520,7 +33175,7 @@
       <c r="F1145" s="2"/>
       <c r="G1145" s="2"/>
     </row>
-    <row r="1146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1146" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1146" s="2"/>
       <c r="B1146" s="2"/>
       <c r="C1146" s="2"/>
@@ -31529,7 +33184,7 @@
       <c r="F1146" s="2"/>
       <c r="G1146" s="2"/>
     </row>
-    <row r="1147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1147" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1147" s="2"/>
       <c r="B1147" s="2"/>
       <c r="C1147" s="2"/>
@@ -31538,7 +33193,7 @@
       <c r="F1147" s="2"/>
       <c r="G1147" s="2"/>
     </row>
-    <row r="1148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1148" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1148" s="2"/>
       <c r="B1148" s="2"/>
       <c r="C1148" s="2"/>
@@ -31547,7 +33202,7 @@
       <c r="F1148" s="2"/>
       <c r="G1148" s="2"/>
     </row>
-    <row r="1149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1149" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1149" s="2"/>
       <c r="B1149" s="2"/>
       <c r="C1149" s="2"/>
@@ -31556,7 +33211,7 @@
       <c r="F1149" s="2"/>
       <c r="G1149" s="2"/>
     </row>
-    <row r="1150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1150" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1150" s="2"/>
       <c r="B1150" s="2"/>
       <c r="C1150" s="2"/>
@@ -31565,7 +33220,7 @@
       <c r="F1150" s="2"/>
       <c r="G1150" s="2"/>
     </row>
-    <row r="1151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1151" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1151" s="2"/>
       <c r="B1151" s="2"/>
       <c r="C1151" s="2"/>
@@ -31574,7 +33229,7 @@
       <c r="F1151" s="2"/>
       <c r="G1151" s="2"/>
     </row>
-    <row r="1152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1152" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1152" s="2"/>
       <c r="B1152" s="2"/>
       <c r="C1152" s="2"/>
@@ -34751,7 +36406,7 @@
       <c r="F1504" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1038 D1096:D1048576">
+  <conditionalFormatting sqref="D1:D1038 D1142:D1048576">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"g1"</formula>
     </cfRule>
